--- a/myapp/files/9_MethodComparePercent/Scenario 291.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 291.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>7483</v>
+        <v>17261</v>
       </c>
       <c r="F2" t="n">
-        <v>5.38504163098468</v>
+        <v>4.06077159600722</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>2.77777777777778</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10424</v>
+        <v>16259</v>
       </c>
       <c r="F3" t="n">
-        <v>7.50149324620931</v>
+        <v>3.82504405187888</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2.77777777777778</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>9374</v>
+        <v>14374</v>
       </c>
       <c r="F4" t="n">
-        <v>6.74587468246029</v>
+        <v>3.38158455020032</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>5.33333333333333</v>
+        <v>2.77777777777778</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>8185</v>
+        <v>15856</v>
       </c>
       <c r="F5" t="n">
-        <v>5.89022661360545</v>
+        <v>3.7302354687614</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>6199</v>
+        <v>12799</v>
       </c>
       <c r="F6" t="n">
-        <v>4.46102807302873</v>
+        <v>3.0110547278429</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2.77777777777778</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>2860</v>
+        <v>4979</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05816104030685</v>
+        <v>1.17134475270957</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2619</v>
+        <v>4600</v>
       </c>
       <c r="F8" t="n">
-        <v>1.88472858900827</v>
+        <v>1.08218233831372</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5.33333333333333</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4649</v>
+        <v>9643</v>
       </c>
       <c r="F9" t="n">
-        <v>3.34559114558971</v>
+        <v>2.26858354094766</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2350</v>
+        <v>20235</v>
       </c>
       <c r="F10" t="n">
-        <v>1.69114630934304</v>
+        <v>4.76042600343005</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>5.55555555555556</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2484</v>
+        <v>14777</v>
       </c>
       <c r="F11" t="n">
-        <v>1.78757763081197</v>
+        <v>3.47639313331781</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>2.66666666666667</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>2520</v>
+        <v>5841</v>
       </c>
       <c r="F12" t="n">
-        <v>1.81348455299765</v>
+        <v>1.37413631262836</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.33333333333333</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6078</v>
+        <v>20287</v>
       </c>
       <c r="F13" t="n">
-        <v>4.37395202901575</v>
+        <v>4.77265936899359</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.66666666666667</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5082</v>
+        <v>25678</v>
       </c>
       <c r="F14" t="n">
-        <v>3.65719384854525</v>
+        <v>6.04093001809127</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,10 +1049,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>2.66666666666667</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7900</v>
+        <v>29970</v>
       </c>
       <c r="F15" t="n">
-        <v>5.68513014630215</v>
+        <v>7.05065319114398</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
@@ -1087,10 +1087,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>5.33333333333333</v>
+        <v>6.94444444444444</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>9404</v>
+        <v>30220</v>
       </c>
       <c r="F16" t="n">
-        <v>6.76746378428169</v>
+        <v>7.10946744866103</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.33333333333333</v>
+        <v>5.55555555555556</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>550</v>
+        <v>2067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.39580020005901</v>
+        <v>0.486276281150971</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.33333333333333</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>5470</v>
+        <v>11403</v>
       </c>
       <c r="F18" t="n">
-        <v>3.9364128987687</v>
+        <v>2.6826359138677</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.66666666666667</v>
+        <v>2.77777777777778</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5265</v>
+        <v>22554</v>
       </c>
       <c r="F19" t="n">
-        <v>3.7888873696558</v>
+        <v>5.30598705615821</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1239,10 +1239,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>1.33333333333333</v>
+        <v>5.09259259259259</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>9535</v>
+        <v>40511</v>
       </c>
       <c r="F20" t="n">
-        <v>6.86173619556848</v>
+        <v>9.53049754509289</v>
       </c>
       <c r="G20" t="n">
         <v>18</v>
@@ -1277,10 +1277,10 @@
         <v>25.3521126760563</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>9.72222222222222</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4636</v>
+        <v>29027</v>
       </c>
       <c r="F21" t="n">
-        <v>3.33623586813377</v>
+        <v>6.82880581178967</v>
       </c>
       <c r="G21" t="n">
         <v>9</v>
@@ -1315,16 +1315,16 @@
         <v>12.6760563380282</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>6.66666666666667</v>
+        <v>7.40740740740741</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4.22535211267606</v>
+        <v>5.63380281690141</v>
       </c>
     </row>
     <row r="22">
@@ -1344,7 +1344,7 @@
         <v>2496</v>
       </c>
       <c r="F22" t="n">
-        <v>1.79621327154053</v>
+        <v>0.58720154705023</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.33333333333333</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>3888</v>
       </c>
       <c r="F23" t="n">
-        <v>2.79794759605351</v>
+        <v>0.914679332905166</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.33333333333333</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>4818</v>
+        <v>8357</v>
       </c>
       <c r="F24" t="n">
-        <v>3.46720975251693</v>
+        <v>1.96604300027996</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>7798</v>
+        <v>29034</v>
       </c>
       <c r="F25" t="n">
-        <v>5.61172720010939</v>
+        <v>6.83045261100015</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>6.66666666666667</v>
+        <v>6.48148148148148</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>6892</v>
+        <v>32951</v>
       </c>
       <c r="F26" t="n">
-        <v>4.95973632510309</v>
+        <v>7.75195439777729</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1505,16 +1505,16 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I26" t="n">
+        <v>14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6.48148148148148</v>
+      </c>
+      <c r="K26" t="n">
         <v>6</v>
       </c>
-      <c r="J26" t="n">
-        <v>8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>7</v>
-      </c>
       <c r="L26" t="n">
-        <v>9.85915492957746</v>
+        <v>8.45070422535211</v>
       </c>
     </row>
   </sheetData>
